--- a/excelfile.xlsx
+++ b/excelfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\GitHub\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3BD44D-2055-4D05-95AB-DF91DBE4FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D51D5-AD90-424D-AF30-D89EDA77EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA737C8F-C795-494B-9C77-F7EC1310A927}"/>
+    <workbookView xWindow="4200" yWindow="50" windowWidth="12630" windowHeight="10030" xr2:uid="{AA737C8F-C795-494B-9C77-F7EC1310A927}"/>
   </bookViews>
   <sheets>
     <sheet name="question4" sheetId="2" r:id="rId1"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B01EF-A15E-4CF5-A442-1EE4AEB5A422}">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,8 +639,152 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
